--- a/biology/Zoologie/Gephyromantis_silvanus/Gephyromantis_silvanus.xlsx
+++ b/biology/Zoologie/Gephyromantis_silvanus/Gephyromantis_silvanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gephyromantis silvanus est une espèce d'amphibiens de la famille des Mantellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gephyromantis silvanus est une espèce d'amphibiens de la famille des Mantellidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre du niveau de la mer jusqu'à 400 m d'altitude sur l'île de Nosy Mangabe et la côte qui lui fait face dans le sud de la presqu'île de Masoala[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre du niveau de la mer jusqu'à 400 m d'altitude sur l'île de Nosy Mangabe et la côte qui lui fait face dans le sud de la presqu'île de Masoala,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le spécimen mâle observé lors de la description originale mesure 30,5 mm de longueur standard[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le spécimen mâle observé lors de la description originale mesure 30,5 mm de longueur standard.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en référence au dieu des forêts, Sylvanus, en raison de l'habitat sylvicole de basse altitude de cette espèce[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en référence au dieu des forêts, Sylvanus, en raison de l'habitat sylvicole de basse altitude de cette espèce.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Vences, Glaw &amp; Andreone, 1997 : Description of two new frogs of the genus Mantidactylus from Madagascar, with notes on Mantidactylus klemmeri (Guibé, 1974) and Mantidactylus webbi (Grandison, 1953) (Amphibia, Ranidae, Mantellinae). Alytes, vol. 14, p. 130-146 (texte intégral).</t>
         </is>
